--- a/вариант 2024 2025/C.Горбачёв/3/22_18290.xlsx
+++ b/вариант 2024 2025/C.Горбачёв/3/22_18290.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\вариант 2024 2025\C.Горбачёв\3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,11 +84,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +124,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,7 +409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,7 +420,7 @@
   <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,14 +596,17 @@
       <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
       <c r="AY2" t="b">
-        <f>SUM(F2:AX2)=B2</f>
+        <f>SUM(J2:AX2)=B2</f>
         <v>1</v>
       </c>
     </row>
@@ -607,17 +624,19 @@
       <c r="E3" s="7">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9">
         <v>1</v>
       </c>
       <c r="AY3" t="b">
-        <f t="shared" ref="AY3:AY15" si="0">SUM(F3:AX3)=B3</f>
+        <f>SUM(J3:AX3)=B3</f>
         <v>1</v>
       </c>
     </row>
@@ -635,14 +654,19 @@
       <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9">
         <v>1</v>
       </c>
       <c r="AY4" t="b">
-        <f t="shared" si="0"/>
+        <f>SUM(J4:AX4)=B4</f>
         <v>1</v>
       </c>
     </row>
@@ -660,23 +684,23 @@
       <c r="E5" s="7">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
         <v>1</v>
       </c>
       <c r="AY5" t="b">
-        <f t="shared" si="0"/>
+        <f>SUM(J5:AX5)=B5</f>
         <v>1</v>
       </c>
     </row>
@@ -694,47 +718,47 @@
       <c r="E6" s="7">
         <v>5</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9">
         <v>1</v>
       </c>
       <c r="AY6" t="b">
-        <f t="shared" si="0"/>
+        <f>SUM(J6:AX6)=B6</f>
         <v>1</v>
       </c>
     </row>
@@ -752,20 +776,20 @@
       <c r="E7" s="7">
         <v>6</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1</v>
+      </c>
+      <c r="T7" s="9">
         <v>1</v>
       </c>
       <c r="AY7" t="b">
-        <f t="shared" si="0"/>
+        <f>SUM(J7:AX7)=B7</f>
         <v>1</v>
       </c>
     </row>
@@ -783,17 +807,17 @@
       <c r="E8" s="7">
         <v>7</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
+      <c r="U8" s="9">
+        <v>1</v>
+      </c>
+      <c r="V8" s="9">
+        <v>1</v>
+      </c>
+      <c r="W8" s="9">
         <v>1</v>
       </c>
       <c r="AY8" t="b">
-        <f t="shared" si="0"/>
+        <f>SUM(J8:AX8)=B8</f>
         <v>1</v>
       </c>
     </row>
@@ -811,14 +835,14 @@
       <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
+      <c r="X9" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="9">
         <v>1</v>
       </c>
       <c r="AY9" t="b">
-        <f t="shared" si="0"/>
+        <f>SUM(J9:AX9)=B9</f>
         <v>1</v>
       </c>
     </row>
@@ -849,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AY3:AY15" si="0">SUM(F10:AX10)=B10</f>
         <v>1</v>
       </c>
     </row>
@@ -867,25 +891,25 @@
       <c r="E11" s="7">
         <v>10</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9">
         <v>1</v>
       </c>
       <c r="AY11" t="b">
@@ -907,22 +931,22 @@
       <c r="E12" s="7">
         <v>11</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
         <v>1</v>
       </c>
       <c r="AY12" t="b">
@@ -944,19 +968,19 @@
       <c r="E13" s="7">
         <v>12</v>
       </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
+      <c r="S13" s="9">
+        <v>1</v>
+      </c>
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="9">
+        <v>1</v>
+      </c>
+      <c r="V13" s="9">
+        <v>1</v>
+      </c>
+      <c r="W13" s="9">
         <v>1</v>
       </c>
       <c r="AY13" t="b">
@@ -978,19 +1002,19 @@
       <c r="E14" s="6">
         <v>13</v>
       </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
       <c r="X14">
         <v>1</v>
       </c>
       <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <v>1</v>
       </c>
       <c r="AY14" t="b">
@@ -1012,34 +1036,34 @@
       <c r="E15" s="7">
         <v>14</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-      <c r="Z15">
+      <c r="Q15" s="9">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="9">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="9">
+        <v>1</v>
+      </c>
+      <c r="V15" s="9">
+        <v>1</v>
+      </c>
+      <c r="W15" s="9">
+        <v>1</v>
+      </c>
+      <c r="X15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="9">
         <v>1</v>
       </c>
       <c r="AY15" t="b">
@@ -1050,32 +1074,32 @@
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="F16">
         <f>SUM(F2:F15)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f t="shared" ref="G16:AX16" si="1">SUM(G2:G15)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="M16">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1114,42 +1138,42 @@
       </c>
       <c r="V16">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="X16">
+      <c r="AA16">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Y16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AB16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(AB2:AB15)</f>
+        <v>1</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="1"/>
+        <f>SUM(AC2:AC15)</f>
         <v>0</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="1"/>
+        <f>SUM(AD2:AD15)</f>
         <v>0</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="1"/>
+        <f>SUM(AE2:AE15)</f>
         <v>0</v>
       </c>
       <c r="AF16">
@@ -1235,8 +1259,18 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:AX15">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="F16:AX16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:AX11 J2:AX9 F15:AX15 F14:T14 S13:W13 X13:AX14 F13:O13 F12:I12 M12:AX12">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1247,16 +1281,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:AX16">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
